--- a/src/main/resources/templates/excel/note.xlsx
+++ b/src/main/resources/templates/excel/note.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\work\src\main\resources\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/northsailor/Downloads/work/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5FD023FA-1058-4499-98B7-8F304CF71505}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="19250" windowHeight="7400" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="方案(吴金玲)" sheetId="5" state="hidden" r:id="rId1"/>
@@ -22,17 +21,47 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">文章汇总!$B$1:$B$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Microsoft Office 用户</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="AE43")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -47,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -67,12 +96,37 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Microsoft Office 用户</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="AQ3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -92,12 +146,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>w</author>
   </authors>
   <commentList>
-    <comment ref="F41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="379">
   <si>
     <t>题库</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1540,10 +1594,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1分/群</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>5分</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1723,114 +1773,176 @@
     <t>日</t>
   </si>
   <si>
-    <t>{{week1.answer}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{week1.remote}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{week1.count}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{week2.answer}}</t>
-  </si>
-  <si>
-    <t>{{week3.answer}}</t>
-  </si>
-  <si>
-    <t>{{week4.answer}}</t>
-  </si>
-  <si>
-    <t>{{week5.answer}}</t>
-  </si>
-  <si>
-    <t>{{week6.answer}}</t>
-  </si>
-  <si>
-    <t>{{week7.answer}}</t>
-  </si>
-  <si>
-    <t>{{week2.remote}}</t>
-  </si>
-  <si>
-    <t>{{week3.remote}}</t>
-  </si>
-  <si>
-    <t>{{week4.remote}}</t>
-  </si>
-  <si>
-    <t>{{week5.remote}}</t>
-  </si>
-  <si>
-    <t>{{week6.remote}}</t>
-  </si>
-  <si>
-    <t>{{week7.remote}}</t>
-  </si>
-  <si>
-    <t>{{week2.count}}</t>
-  </si>
-  <si>
-    <t>{{week3.count}}</t>
-  </si>
-  <si>
-    <t>{{week4.count}}</t>
-  </si>
-  <si>
-    <t>{{week5.count}}</t>
-  </si>
-  <si>
-    <t>{{week6.count}}</t>
-  </si>
-  <si>
-    <t>{{week7.count}}</t>
-  </si>
-  <si>
-    <t>{{week8.count}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{week8.validCount}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{week8.broadcast}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{week1.forward}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{week2.forward}}</t>
-  </si>
-  <si>
-    <t>{{week3.forward}}</t>
-  </si>
-  <si>
-    <t>{{week4.forward}}</t>
-  </si>
-  <si>
-    <t>{{week5.forward}}</t>
-  </si>
-  <si>
-    <t>{{week6.forward}}</t>
-  </si>
-  <si>
-    <t>{{week7.forward}}</t>
+    <t>${week1.answer}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week2.answer}</t>
+  </si>
+  <si>
+    <t>${week3.answer}</t>
+  </si>
+  <si>
+    <t>${week4.answer}</t>
+  </si>
+  <si>
+    <t>${week5.answer}</t>
+  </si>
+  <si>
+    <t>${week6.answer}</t>
+  </si>
+  <si>
+    <t>${week7.answer}</t>
+  </si>
+  <si>
+    <t>${week2.remote}</t>
+  </si>
+  <si>
+    <t>${week3.remote}</t>
+  </si>
+  <si>
+    <t>${week4.remote}</t>
+  </si>
+  <si>
+    <t>${week5.remote}</t>
+  </si>
+  <si>
+    <t>${week6.remote}</t>
+  </si>
+  <si>
+    <t>${week7.remote}</t>
+  </si>
+  <si>
+    <t>${week1.remote}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week1.count}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week2.count}</t>
+  </si>
+  <si>
+    <t>${week3.count}</t>
+  </si>
+  <si>
+    <t>${week4.count}</t>
+  </si>
+  <si>
+    <t>${week5.count}</t>
+  </si>
+  <si>
+    <t>${week6.count}</t>
+  </si>
+  <si>
+    <t>${week7.count}</t>
+  </si>
+  <si>
+    <t>${week8.count}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week8.validCount}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week1.broadcast}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week2.broadcast}</t>
+  </si>
+  <si>
+    <t>${week3.broadcast}</t>
+  </si>
+  <si>
+    <t>${week4.broadcast}</t>
+  </si>
+  <si>
+    <t>${week5.broadcast}</t>
+  </si>
+  <si>
+    <t>${week6.broadcast}</t>
+  </si>
+  <si>
+    <t>${week7.broadcast}</t>
+  </si>
+  <si>
+    <t>${week1.forward}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week1.inputTitle}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week2.inputTitle}</t>
+  </si>
+  <si>
+    <t>${week3.inputTitle}</t>
+  </si>
+  <si>
+    <t>${week4.inputTitle}</t>
+  </si>
+  <si>
+    <t>${week5.inputTitle}</t>
+  </si>
+  <si>
+    <t>${week6.inputTitle}</t>
+  </si>
+  <si>
+    <t>${week7.inputTitle}</t>
+  </si>
+  <si>
+    <t>${week2.forward}</t>
+  </si>
+  <si>
+    <t>${week3.forward}</t>
+  </si>
+  <si>
+    <t>${week4.forward}</t>
+  </si>
+  <si>
+    <t>${week5.forward}</t>
+  </si>
+  <si>
+    <t>${week6.forward}</t>
+  </si>
+  <si>
+    <t>${week7.forward}</t>
+  </si>
+  <si>
+    <t>${week1.other}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${week2.other}</t>
+  </si>
+  <si>
+    <t>${week3.other}</t>
+  </si>
+  <si>
+    <t>${week4.other}</t>
+  </si>
+  <si>
+    <t>${week5.other}</t>
+  </si>
+  <si>
+    <t>${week6.other}</t>
+  </si>
+  <si>
+    <t>${week7.other}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2101,6 +2213,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2490,7 +2615,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
@@ -2502,7 +2627,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
@@ -3009,6 +3134,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3084,27 +3230,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3141,6 +3266,15 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3150,6 +3284,99 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3159,123 +3386,21 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="差_Sheet2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="差_Sheet2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="差_Sheet2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="差_Sheet2" xfId="5"/>
+    <cellStyle name="差_Sheet2 2" xfId="10"/>
+    <cellStyle name="差_Sheet2 3" xfId="8"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 12" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3_Sheet2" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="好_Sheet2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="好_Sheet2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="好_Sheet2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 12" xfId="4"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
+    <cellStyle name="常规 3_Sheet2" xfId="6"/>
+    <cellStyle name="常规 4" xfId="12"/>
+    <cellStyle name="好_Sheet2" xfId="7"/>
+    <cellStyle name="好_Sheet2 2" xfId="11"/>
+    <cellStyle name="好_Sheet2 3" xfId="9"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3302,7 +3427,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3623,21 +3748,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="64.58203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3649,7 +3774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3663,7 +3788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3677,7 +3802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -3691,7 +3816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -3705,7 +3830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3719,7 +3844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -3733,7 +3858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3747,7 +3872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -3782,23 +3907,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="12.08203125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="55"/>
+    <col min="2" max="2" width="12.1640625" style="55" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="55" customWidth="1"/>
-    <col min="4" max="4" width="53.08203125" style="112" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" style="112" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="131" t="s">
         <v>178</v>
       </c>
@@ -3817,37 +3942,37 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="G2" s="99" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="G3" s="99" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="G4" s="99" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="G5" s="118" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="G6" s="118" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="G7" s="118" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="G8" s="118" t="s">
         <v>78</v>
       </c>
@@ -3856,7 +3981,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$G$1:$G$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3866,46 +3991,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.58203125" style="102" customWidth="1"/>
-    <col min="3" max="3" width="9" style="40"/>
-    <col min="4" max="4" width="34.25" style="40" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="102" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="40"/>
+    <col min="4" max="4" width="34.1640625" style="40" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="49" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="7" style="40" customWidth="1"/>
-    <col min="9" max="9" width="7.08203125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="7" style="40" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="40" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="40" customWidth="1"/>
     <col min="12" max="12" width="7" style="40" customWidth="1"/>
-    <col min="13" max="13" width="6.58203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="40" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="40" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="40" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="40" hidden="1" customWidth="1"/>
-    <col min="17" max="23" width="4.08203125" style="158" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="7.25" style="40" customWidth="1"/>
-    <col min="25" max="25" width="11.08203125" style="40" customWidth="1"/>
-    <col min="26" max="26" width="13.25" style="117" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="40" hidden="1" customWidth="1"/>
+    <col min="17" max="23" width="4.1640625" style="158" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="7.1640625" style="40" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" style="40" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" style="117" customWidth="1"/>
     <col min="27" max="28" width="13" style="117" customWidth="1"/>
-    <col min="29" max="29" width="11.25" style="117" customWidth="1"/>
-    <col min="30" max="30" width="15.08203125" style="117" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" style="117" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" style="117" customWidth="1"/>
     <col min="31" max="34" width="9" style="40" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="40"/>
+    <col min="35" max="16384" width="8.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:77" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>59</v>
       </c>
@@ -3953,25 +4078,25 @@
         <v>70</v>
       </c>
       <c r="Q1" s="155" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" s="155" t="s">
         <v>322</v>
       </c>
-      <c r="R1" s="155" t="s">
+      <c r="S1" s="155" t="s">
         <v>323</v>
       </c>
-      <c r="S1" s="155" t="s">
+      <c r="T1" s="155" t="s">
         <v>324</v>
       </c>
-      <c r="T1" s="155" t="s">
+      <c r="U1" s="155" t="s">
         <v>325</v>
       </c>
-      <c r="U1" s="155" t="s">
+      <c r="V1" s="155" t="s">
         <v>326</v>
       </c>
-      <c r="V1" s="155" t="s">
+      <c r="W1" s="155" t="s">
         <v>327</v>
-      </c>
-      <c r="W1" s="155" t="s">
-        <v>328</v>
       </c>
       <c r="X1" s="53" t="s">
         <v>71</v>
@@ -3980,60 +4105,60 @@
         <v>72</v>
       </c>
       <c r="Z1" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA1" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB1" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC1" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD1" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="AA1" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB1" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC1" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD1" s="53" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="163" t="s">
+    </row>
+    <row r="2" spans="1:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="171" t="s">
         <v>74</v>
       </c>
       <c r="D2" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="174" t="s">
-        <v>292</v>
+      <c r="E2" s="181" t="s">
+        <v>291</v>
       </c>
       <c r="F2" s="137">
         <v>2</v>
       </c>
       <c r="G2" s="124" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="124" t="s">
+      <c r="I2" s="124" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="124" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="L2" s="124" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="M2" s="124" t="s">
         <v>334</v>
-      </c>
-      <c r="K2" s="124" t="s">
-        <v>335</v>
-      </c>
-      <c r="L2" s="124" t="s">
-        <v>336</v>
-      </c>
-      <c r="M2" s="124" t="s">
-        <v>337</v>
       </c>
       <c r="N2" s="57">
         <f>SUM(G2:M2)</f>
@@ -4075,66 +4200,66 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X2" s="182">
+      <c r="X2" s="159">
         <f>SUM(P2:P42)</f>
-        <v>30</v>
-      </c>
-      <c r="Y2" s="182">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="159">
         <f>SUM(N2:N2)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="182">
+      <c r="Z2" s="159">
         <f>N4</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="182" t="str">
+      <c r="AA2" s="159" t="str">
         <f>N7</f>
-        <v>{{week8.count}}</v>
-      </c>
-      <c r="AB2" s="182" t="str">
+        <v>${week8.count}</v>
+      </c>
+      <c r="AB2" s="159" t="str">
         <f>N8</f>
-        <v>{{week8.validCount}}</v>
-      </c>
-      <c r="AC2" s="182">
+        <v>${week8.validCount}</v>
+      </c>
+      <c r="AC2" s="159">
         <f>N9</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="182">
+      <c r="AD2" s="159">
         <f>N10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:77" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
+    <row r="3" spans="1:77" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="174"/>
+      <c r="E3" s="181"/>
       <c r="F3" s="137">
         <v>5</v>
       </c>
       <c r="G3" s="124" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H3" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="124" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="124" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="124" t="s">
         <v>338</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="L3" s="124" t="s">
         <v>339</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="M3" s="124" t="s">
         <v>340</v>
-      </c>
-      <c r="K3" s="124" t="s">
-        <v>341</v>
-      </c>
-      <c r="L3" s="124" t="s">
-        <v>342</v>
-      </c>
-      <c r="M3" s="124" t="s">
-        <v>343</v>
       </c>
       <c r="N3" s="123">
         <f>SUM(G3:M3)</f>
@@ -4173,30 +4298,30 @@
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-    </row>
-    <row r="4" spans="1:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="160"/>
+    </row>
+    <row r="4" spans="1:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="151" t="s">
-        <v>291</v>
-      </c>
-      <c r="E4" s="175"/>
+        <v>290</v>
+      </c>
+      <c r="E4" s="182"/>
       <c r="F4" s="137"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="188"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="165"/>
       <c r="N4" s="57">
         <f>G4</f>
         <v>0</v>
@@ -4210,25 +4335,25 @@
       <c r="U4" s="124"/>
       <c r="V4" s="124"/>
       <c r="W4" s="124"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="183"/>
-      <c r="AB4" s="183"/>
-      <c r="AC4" s="183"/>
-      <c r="AD4" s="183"/>
-    </row>
-    <row r="5" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="165" t="s">
+      <c r="X4" s="160"/>
+      <c r="Y4" s="160"/>
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+    </row>
+    <row r="5" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="172" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="134" t="s">
         <v>191</v>
       </c>
       <c r="E5" s="142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="134">
         <v>0.05</v>
@@ -4277,18 +4402,18 @@
         <f>SUM(M5*F5)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="183"/>
-      <c r="AA5" s="183"/>
-      <c r="AB5" s="183"/>
-      <c r="AC5" s="183"/>
-      <c r="AD5" s="183"/>
-    </row>
-    <row r="6" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="166"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+    </row>
+    <row r="6" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="134" t="s">
         <v>216</v>
       </c>
@@ -4299,25 +4424,25 @@
         <v>5</v>
       </c>
       <c r="G6" s="124" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H6" s="124" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="J6" s="124" t="s">
         <v>345</v>
       </c>
-      <c r="J6" s="124" t="s">
+      <c r="K6" s="124" t="s">
         <v>346</v>
       </c>
-      <c r="K6" s="124" t="s">
+      <c r="L6" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="L6" s="124" t="s">
+      <c r="M6" s="124" t="s">
         <v>348</v>
-      </c>
-      <c r="M6" s="124" t="s">
-        <v>349</v>
       </c>
       <c r="N6" s="123">
         <f t="shared" ref="N6" si="3">SUM(G6:M6)</f>
@@ -4356,37 +4481,37 @@
         <f>SUM(M6*F6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="183"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="183"/>
-    </row>
-    <row r="7" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="166"/>
+      <c r="X6" s="160"/>
+      <c r="Y6" s="160"/>
+      <c r="Z6" s="160"/>
+      <c r="AA6" s="160"/>
+      <c r="AB6" s="160"/>
+      <c r="AC6" s="160"/>
+      <c r="AD6" s="160"/>
+    </row>
+    <row r="7" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="170"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="152" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="168" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="E7" s="175" t="s">
+        <v>292</v>
       </c>
       <c r="F7" s="134"/>
-      <c r="G7" s="186" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="188"/>
+      <c r="G7" s="163" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="165"/>
       <c r="N7" s="123" t="str">
         <f>G7</f>
-        <v>{{week8.count}}</v>
+        <v>${week8.count}</v>
       </c>
       <c r="O7" s="100"/>
       <c r="P7" s="123"/>
@@ -4397,35 +4522,35 @@
       <c r="U7" s="124"/>
       <c r="V7" s="124"/>
       <c r="W7" s="124"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-    </row>
-    <row r="8" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="163"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="166"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+    </row>
+    <row r="8" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="152" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="169"/>
+        <v>303</v>
+      </c>
+      <c r="E8" s="176"/>
       <c r="F8" s="134"/>
-      <c r="G8" s="186" t="s">
-        <v>351</v>
-      </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="188"/>
+      <c r="G8" s="163" t="s">
+        <v>350</v>
+      </c>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="165"/>
       <c r="N8" s="123" t="str">
         <f t="shared" ref="N8:N10" si="4">G8</f>
-        <v>{{week8.validCount}}</v>
+        <v>${week8.validCount}</v>
       </c>
       <c r="O8" s="100"/>
       <c r="P8" s="123"/>
@@ -4436,30 +4561,30 @@
       <c r="U8" s="124"/>
       <c r="V8" s="124"/>
       <c r="W8" s="124"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183"/>
-      <c r="AA8" s="183"/>
-      <c r="AB8" s="183"/>
-      <c r="AC8" s="183"/>
-      <c r="AD8" s="183"/>
-    </row>
-    <row r="9" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="166"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+    </row>
+    <row r="9" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="170"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="152" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="169"/>
+        <v>287</v>
+      </c>
+      <c r="E9" s="176"/>
       <c r="F9" s="134"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="188"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="165"/>
       <c r="N9" s="123">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4473,30 +4598,30 @@
       <c r="U9" s="124"/>
       <c r="V9" s="124"/>
       <c r="W9" s="124"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-    </row>
-    <row r="10" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="167"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="160"/>
+      <c r="AA9" s="160"/>
+      <c r="AB9" s="160"/>
+      <c r="AC9" s="160"/>
+      <c r="AD9" s="160"/>
+    </row>
+    <row r="10" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="170"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="174"/>
       <c r="D10" s="152" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="170"/>
+        <v>288</v>
+      </c>
+      <c r="E10" s="177"/>
       <c r="F10" s="134"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="165"/>
       <c r="N10" s="123">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4510,36 +4635,50 @@
       <c r="U10" s="124"/>
       <c r="V10" s="124"/>
       <c r="W10" s="124"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-    </row>
-    <row r="11" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="163"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="171" t="s">
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="160"/>
+      <c r="AA10" s="160"/>
+      <c r="AB10" s="160"/>
+      <c r="AC10" s="160"/>
+      <c r="AD10" s="160"/>
+    </row>
+    <row r="11" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="170"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="178" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="136" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="136">
         <v>5</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
+      <c r="G11" s="124" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="124" t="s">
+        <v>361</v>
+      </c>
+      <c r="J11" s="124" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="124" t="s">
+        <v>363</v>
+      </c>
+      <c r="L11" s="124" t="s">
+        <v>364</v>
+      </c>
+      <c r="M11" s="124" t="s">
+        <v>365</v>
+      </c>
       <c r="N11" s="123">
         <f t="shared" ref="N11:N13" si="5">SUM(G11:M11)</f>
         <v>0</v>
@@ -4549,51 +4688,51 @@
         <f t="shared" ref="P11:P38" si="6">SUM(N11*F11)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="124">
+      <c r="Q11" s="124" t="e">
         <f t="shared" ref="Q11:Q42" si="7">SUM(G11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="124" t="e">
         <f t="shared" ref="R11:R42" si="8">SUM(H11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S11" s="124" t="e">
         <f t="shared" ref="S11:S42" si="9">SUM(I11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="124" t="e">
         <f t="shared" ref="T11:T42" si="10">SUM(J11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U11" s="124" t="e">
         <f t="shared" ref="U11:U42" si="11">SUM(K11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V11" s="124" t="e">
         <f t="shared" ref="V11:V42" si="12">SUM(L11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W11" s="124" t="e">
         <f t="shared" ref="W11:W42" si="13">SUM(M11*F11)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-    </row>
-    <row r="12" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="163"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="171"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+    </row>
+    <row r="12" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="136" t="s">
         <v>278</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="136">
         <v>1</v>
@@ -4642,23 +4781,23 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-    </row>
-    <row r="13" spans="1:77" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="163"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="172"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="160"/>
+    </row>
+    <row r="13" spans="1:77" s="117" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="136" t="s">
         <v>193</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="139">
         <v>3</v>
@@ -4707,18 +4846,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-    </row>
-    <row r="14" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="163"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="165" t="s">
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
+      <c r="AC13" s="160"/>
+      <c r="AD13" s="160"/>
+    </row>
+    <row r="14" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="172" t="s">
         <v>187</v>
       </c>
       <c r="D14" s="134" t="s">
@@ -4774,20 +4913,20 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-    </row>
-    <row r="15" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="163"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="166"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="160"/>
+    </row>
+    <row r="15" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="134" t="s">
         <v>279</v>
@@ -4839,18 +4978,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-    </row>
-    <row r="16" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="163"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="166"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+    </row>
+    <row r="16" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="134" t="s">
         <v>78</v>
       </c>
@@ -4904,18 +5043,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-    </row>
-    <row r="17" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="163"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="166"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="160"/>
+      <c r="AC16" s="160"/>
+      <c r="AD16" s="160"/>
+    </row>
+    <row r="17" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="134" t="s">
         <v>201</v>
       </c>
@@ -4969,47 +5108,45 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-    </row>
-    <row r="18" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="163"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="167"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+    </row>
+    <row r="18" spans="1:77" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="170"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="134" t="s">
-        <v>282</v>
-      </c>
+      <c r="E18" s="134"/>
       <c r="F18" s="143">
         <v>1</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H18" s="124" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="I18" s="124" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="K18" s="124" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="L18" s="124" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M18" s="124" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="N18" s="57">
         <f t="shared" si="14"/>
@@ -5048,18 +5185,18 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-    </row>
-    <row r="19" spans="1:77" s="102" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="163"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="173" t="s">
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="160"/>
+      <c r="AB18" s="160"/>
+      <c r="AC18" s="160"/>
+      <c r="AD18" s="160"/>
+    </row>
+    <row r="19" spans="1:77" s="102" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="170"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="180" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="136" t="s">
@@ -5071,9 +5208,7 @@
       <c r="F19" s="139">
         <v>1</v>
       </c>
-      <c r="G19" s="124" t="s">
-        <v>352</v>
-      </c>
+      <c r="G19" s="124"/>
       <c r="H19" s="100"/>
       <c r="I19" s="100"/>
       <c r="J19" s="100"/>
@@ -5089,9 +5224,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="124" t="e">
+      <c r="Q19" s="124">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="R19" s="124">
         <f t="shared" si="8"/>
@@ -5117,34 +5252,48 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-    </row>
-    <row r="20" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="163"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="171"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="160"/>
+    </row>
+    <row r="20" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="178"/>
       <c r="D20" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="141" t="s">
         <v>296</v>
-      </c>
-      <c r="E20" s="141" t="s">
-        <v>297</v>
       </c>
       <c r="F20" s="139">
         <v>40</v>
       </c>
-      <c r="G20" s="124"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="G20" s="124" t="s">
+        <v>351</v>
+      </c>
+      <c r="H20" s="124" t="s">
+        <v>352</v>
+      </c>
+      <c r="I20" s="124" t="s">
+        <v>353</v>
+      </c>
+      <c r="J20" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="K20" s="124" t="s">
+        <v>355</v>
+      </c>
+      <c r="L20" s="124" t="s">
+        <v>356</v>
+      </c>
+      <c r="M20" s="124" t="s">
+        <v>357</v>
+      </c>
       <c r="N20" s="57">
         <f t="shared" ref="N20:N42" si="16">SUM(G20:M20)</f>
         <v>0</v>
@@ -5154,51 +5303,51 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="124">
+      <c r="Q20" s="124" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R20" s="124" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S20" s="124" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T20" s="124" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20" s="124" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" s="124" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W20" s="124" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-    </row>
-    <row r="21" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="163"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="171"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+    </row>
+    <row r="21" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="170"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="136" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E21" s="141" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F21" s="139">
         <v>60</v>
@@ -5247,23 +5396,23 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-    </row>
-    <row r="22" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="163"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="172"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="160"/>
+      <c r="AC21" s="160"/>
+      <c r="AD21" s="160"/>
+    </row>
+    <row r="22" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="170"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="179"/>
       <c r="D22" s="136" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" s="141" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F22" s="139">
         <v>30</v>
@@ -5312,18 +5461,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-    </row>
-    <row r="23" spans="1:77" s="80" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="163"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="165" t="s">
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="160"/>
+      <c r="AD22" s="160"/>
+    </row>
+    <row r="23" spans="1:77" s="80" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="172" t="s">
         <v>192</v>
       </c>
       <c r="D23" s="147" t="s">
@@ -5379,23 +5528,23 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-    </row>
-    <row r="24" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="163"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="166"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+    </row>
+    <row r="24" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="173"/>
       <c r="D24" s="147" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" s="148" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F24" s="144">
         <v>10</v>
@@ -5444,20 +5593,20 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-    </row>
-    <row r="25" spans="1:77" s="80" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="163"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="166"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
+      <c r="AC24" s="160"/>
+      <c r="AD24" s="160"/>
+    </row>
+    <row r="25" spans="1:77" s="80" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="170"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="147" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E25" s="148" t="s">
         <v>175</v>
@@ -5509,20 +5658,20 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-    </row>
-    <row r="26" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="163"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="166"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="160"/>
+      <c r="AB25" s="160"/>
+      <c r="AC25" s="160"/>
+      <c r="AD25" s="160"/>
+    </row>
+    <row r="26" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="170"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="173"/>
       <c r="D26" s="147" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E26" s="148" t="s">
         <v>93</v>
@@ -5574,18 +5723,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-    </row>
-    <row r="27" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="163"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="166"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+    </row>
+    <row r="27" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="170"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="173"/>
       <c r="D27" s="144" t="s">
         <v>79</v>
       </c>
@@ -5639,18 +5788,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-    </row>
-    <row r="28" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="163"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="166"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="160"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="160"/>
+      <c r="AD27" s="160"/>
+    </row>
+    <row r="28" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="170"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="173"/>
       <c r="D28" s="144" t="s">
         <v>80</v>
       </c>
@@ -5704,18 +5853,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-    </row>
-    <row r="29" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="163"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="166"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="160"/>
+    </row>
+    <row r="29" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="170"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="173"/>
       <c r="D29" s="144" t="s">
         <v>81</v>
       </c>
@@ -5769,18 +5918,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-    </row>
-    <row r="30" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="163"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="166"/>
+      <c r="X29" s="160"/>
+      <c r="Y29" s="160"/>
+      <c r="Z29" s="160"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="160"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="160"/>
+    </row>
+    <row r="30" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="170"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="173"/>
       <c r="D30" s="144" t="s">
         <v>231</v>
       </c>
@@ -5834,18 +5983,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-    </row>
-    <row r="31" spans="1:77" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="163"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="166"/>
+      <c r="X30" s="160"/>
+      <c r="Y30" s="160"/>
+      <c r="Z30" s="160"/>
+      <c r="AA30" s="160"/>
+      <c r="AB30" s="160"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="160"/>
+    </row>
+    <row r="31" spans="1:77" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="170"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="144" t="s">
         <v>233</v>
       </c>
@@ -5899,18 +6048,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-    </row>
-    <row r="32" spans="1:77" s="102" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="163"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="167"/>
+      <c r="X31" s="160"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="160"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="160"/>
+    </row>
+    <row r="32" spans="1:77" s="102" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="170"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="174"/>
       <c r="D32" s="135" t="s">
         <v>83</v>
       </c>
@@ -5964,13 +6113,13 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
       <c r="AE32" s="40"/>
       <c r="AF32" s="40"/>
       <c r="AG32" s="40"/>
@@ -6019,11 +6168,11 @@
       <c r="BX32" s="40"/>
       <c r="BY32" s="40"/>
     </row>
-    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="163"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="178" t="s">
+    <row r="33" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="170"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="185" t="s">
         <v>250</v>
       </c>
       <c r="E33" s="62" t="s">
@@ -6076,19 +6225,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-    </row>
-    <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="163"/>
-      <c r="B34" s="163"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="179"/>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
+      <c r="AD33" s="160"/>
+    </row>
+    <row r="34" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="170"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="186"/>
       <c r="E34" s="62" t="s">
         <v>268</v>
       </c>
@@ -6139,19 +6288,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X34" s="183"/>
-      <c r="Y34" s="183"/>
-      <c r="Z34" s="183"/>
-      <c r="AA34" s="183"/>
-      <c r="AB34" s="183"/>
-      <c r="AC34" s="183"/>
-      <c r="AD34" s="183"/>
-    </row>
-    <row r="35" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="163"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="180" t="s">
+      <c r="X34" s="160"/>
+      <c r="Y34" s="160"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="160"/>
+      <c r="AB34" s="160"/>
+      <c r="AC34" s="160"/>
+      <c r="AD34" s="160"/>
+    </row>
+    <row r="35" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="170"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="187" t="s">
         <v>251</v>
       </c>
       <c r="E35" s="62" t="s">
@@ -6204,19 +6353,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X35" s="183"/>
-      <c r="Y35" s="183"/>
-      <c r="Z35" s="183"/>
-      <c r="AA35" s="183"/>
-      <c r="AB35" s="183"/>
-      <c r="AC35" s="183"/>
-      <c r="AD35" s="183"/>
-    </row>
-    <row r="36" spans="1:30" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="163"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="181"/>
+      <c r="X35" s="160"/>
+      <c r="Y35" s="160"/>
+      <c r="Z35" s="160"/>
+      <c r="AA35" s="160"/>
+      <c r="AB35" s="160"/>
+      <c r="AC35" s="160"/>
+      <c r="AD35" s="160"/>
+    </row>
+    <row r="36" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="170"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="188"/>
       <c r="E36" s="62" t="s">
         <v>270</v>
       </c>
@@ -6267,19 +6416,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X36" s="183"/>
-      <c r="Y36" s="183"/>
-      <c r="Z36" s="183"/>
-      <c r="AA36" s="183"/>
-      <c r="AB36" s="183"/>
-      <c r="AC36" s="183"/>
-      <c r="AD36" s="183"/>
-    </row>
-    <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="180" t="s">
+      <c r="X36" s="160"/>
+      <c r="Y36" s="160"/>
+      <c r="Z36" s="160"/>
+      <c r="AA36" s="160"/>
+      <c r="AB36" s="160"/>
+      <c r="AC36" s="160"/>
+      <c r="AD36" s="160"/>
+    </row>
+    <row r="37" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="170"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="187" t="s">
         <v>252</v>
       </c>
       <c r="E37" s="62" t="s">
@@ -6332,19 +6481,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X37" s="183"/>
-      <c r="Y37" s="183"/>
-      <c r="Z37" s="183"/>
-      <c r="AA37" s="183"/>
-      <c r="AB37" s="183"/>
-      <c r="AC37" s="183"/>
-      <c r="AD37" s="183"/>
-    </row>
-    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="163"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="181"/>
+      <c r="X37" s="160"/>
+      <c r="Y37" s="160"/>
+      <c r="Z37" s="160"/>
+      <c r="AA37" s="160"/>
+      <c r="AB37" s="160"/>
+      <c r="AC37" s="160"/>
+      <c r="AD37" s="160"/>
+    </row>
+    <row r="38" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+      <c r="A38" s="170"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="188"/>
       <c r="E38" s="62" t="s">
         <v>272</v>
       </c>
@@ -6395,18 +6544,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X38" s="183"/>
-      <c r="Y38" s="183"/>
-      <c r="Z38" s="183"/>
-      <c r="AA38" s="183"/>
-      <c r="AB38" s="183"/>
-      <c r="AC38" s="183"/>
-      <c r="AD38" s="183"/>
-    </row>
-    <row r="39" spans="1:30" s="80" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="163"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="176" t="s">
+      <c r="X38" s="160"/>
+      <c r="Y38" s="160"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="160"/>
+      <c r="AC38" s="160"/>
+      <c r="AD38" s="160"/>
+    </row>
+    <row r="39" spans="1:30" s="80" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A39" s="170"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="183" t="s">
         <v>154</v>
       </c>
       <c r="D39" s="126" t="s">
@@ -6462,18 +6611,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X39" s="183"/>
-      <c r="Y39" s="183"/>
-      <c r="Z39" s="183"/>
-      <c r="AA39" s="183"/>
-      <c r="AB39" s="183"/>
-      <c r="AC39" s="183"/>
-      <c r="AD39" s="183"/>
-    </row>
-    <row r="40" spans="1:30" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="163"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="177"/>
+      <c r="X39" s="160"/>
+      <c r="Y39" s="160"/>
+      <c r="Z39" s="160"/>
+      <c r="AA39" s="160"/>
+      <c r="AB39" s="160"/>
+      <c r="AC39" s="160"/>
+      <c r="AD39" s="160"/>
+    </row>
+    <row r="40" spans="1:30" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="170"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="126" t="s">
         <v>254</v>
       </c>
@@ -6527,17 +6676,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X40" s="183"/>
-      <c r="Y40" s="183"/>
-      <c r="Z40" s="183"/>
-      <c r="AA40" s="183"/>
-      <c r="AB40" s="183"/>
-      <c r="AC40" s="183"/>
-      <c r="AD40" s="183"/>
-    </row>
-    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="163"/>
-      <c r="B41" s="163"/>
+      <c r="X40" s="160"/>
+      <c r="Y40" s="160"/>
+      <c r="Z40" s="160"/>
+      <c r="AA40" s="160"/>
+      <c r="AB40" s="160"/>
+      <c r="AC40" s="160"/>
+      <c r="AD40" s="160"/>
+    </row>
+    <row r="41" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+      <c r="A41" s="170"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="88" t="s">
         <v>120</v>
       </c>
@@ -6548,63 +6697,75 @@
       <c r="F41" s="86">
         <v>1</v>
       </c>
-      <c r="G41" s="124"/>
-      <c r="H41" s="42">
-        <v>30</v>
-      </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="42"/>
+      <c r="G41" s="124" t="s">
+        <v>372</v>
+      </c>
+      <c r="H41" s="124" t="s">
+        <v>373</v>
+      </c>
+      <c r="I41" s="124" t="s">
+        <v>374</v>
+      </c>
+      <c r="J41" s="124" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" s="124" t="s">
+        <v>376</v>
+      </c>
+      <c r="L41" s="124" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" s="124" t="s">
+        <v>378</v>
+      </c>
       <c r="N41" s="57">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O41" s="42"/>
       <c r="P41" s="57">
         <f>SUM(N41*F41)</f>
-        <v>30</v>
-      </c>
-      <c r="Q41" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="124" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R41" s="124" t="e">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="S41" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S41" s="124" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T41" s="124" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U41" s="124" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V41" s="124" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W41" s="124" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="183"/>
-      <c r="Y41" s="183"/>
-      <c r="Z41" s="183"/>
-      <c r="AA41" s="183"/>
-      <c r="AB41" s="183"/>
-      <c r="AC41" s="183"/>
-      <c r="AD41" s="183"/>
-    </row>
-    <row r="42" spans="1:30" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="163"/>
-      <c r="B42" s="163"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X41" s="160"/>
+      <c r="Y41" s="160"/>
+      <c r="Z41" s="160"/>
+      <c r="AA41" s="160"/>
+      <c r="AB41" s="160"/>
+      <c r="AC41" s="160"/>
+      <c r="AD41" s="160"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="170"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="61"/>
       <c r="D42" s="128"/>
       <c r="E42" s="44">
@@ -6659,32 +6820,35 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X42" s="185"/>
-      <c r="Y42" s="185"/>
+      <c r="X42" s="162"/>
+      <c r="Y42" s="162"/>
       <c r="Z42" s="146"/>
       <c r="AA42" s="133"/>
       <c r="AB42" s="149"/>
       <c r="AC42" s="133"/>
       <c r="AD42" s="133"/>
     </row>
-    <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="184" t="s">
+      <c r="C43" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="184"/>
-      <c r="E43" s="184"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
       <c r="F43" s="41"/>
       <c r="G43" s="124" t="e">
         <f t="shared" ref="G43:M43" si="17">SUM(Q2:Q42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H43" s="124"/>
+      <c r="H43" s="124" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I43" s="124" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
@@ -6723,7 +6887,7 @@
       <c r="AC43" s="125"/>
       <c r="AD43" s="125"/>
     </row>
-    <row r="44" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" ht="17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>86</v>
       </c>
@@ -6783,7 +6947,7 @@
       <c r="AC44" s="125"/>
       <c r="AD44" s="125"/>
     </row>
-    <row r="45" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" ht="17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>87</v>
       </c>
@@ -6843,7 +7007,7 @@
       <c r="AC45" s="125"/>
       <c r="AD45" s="125"/>
     </row>
-    <row r="46" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" ht="17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>97</v>
       </c>
@@ -6885,7 +7049,7 @@
       <c r="AC46" s="120"/>
       <c r="AD46" s="120"/>
     </row>
-    <row r="47" spans="1:30" s="117" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" s="117" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="119" t="s">
         <v>97</v>
       </c>
@@ -6927,16 +7091,16 @@
       <c r="AC47" s="120"/>
       <c r="AD47" s="120"/>
     </row>
-    <row r="48" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" ht="17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="122" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="159"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="161"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="168"/>
       <c r="F48" s="48"/>
       <c r="G48" s="57" t="e">
         <f>SUM(G44:G45)</f>
@@ -6989,19 +7153,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Z2:Z41"/>
-    <mergeCell ref="AA2:AA41"/>
-    <mergeCell ref="AC2:AC41"/>
-    <mergeCell ref="AD2:AD41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="X2:X42"/>
-    <mergeCell ref="Y2:Y42"/>
-    <mergeCell ref="AB2:AB41"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G4:M4"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="A2:A42"/>
@@ -7018,6 +7169,19 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
+    <mergeCell ref="Z2:Z41"/>
+    <mergeCell ref="AA2:AA41"/>
+    <mergeCell ref="AC2:AC41"/>
+    <mergeCell ref="AD2:AD41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="X2:X42"/>
+    <mergeCell ref="Y2:Y42"/>
+    <mergeCell ref="AB2:AB41"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D1">
@@ -7075,14 +7239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="74" customWidth="1"/>
@@ -7101,7 +7265,7 @@
     <col min="36" max="42" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="193" t="s">
         <v>114</v>
       </c>
@@ -7141,7 +7305,7 @@
       <c r="Y1" s="200"/>
       <c r="Z1" s="192"/>
       <c r="AA1" s="190" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB1" s="190"/>
       <c r="AC1" s="190"/>
@@ -7153,10 +7317,10 @@
       </c>
       <c r="AH1" s="192"/>
       <c r="AI1" s="150" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AJ1" s="189" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK1" s="189"/>
       <c r="AL1" s="189"/>
@@ -7165,7 +7329,7 @@
       <c r="AO1" s="189"/>
       <c r="AP1" s="189"/>
     </row>
-    <row r="2" spans="1:42" s="154" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" s="154" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>75</v>
       </c>
@@ -7203,28 +7367,28 @@
         <v>202</v>
       </c>
       <c r="M2" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="N2" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="O2" s="60" t="s">
+      <c r="P2" s="60" t="s">
         <v>307</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>308</v>
       </c>
       <c r="Q2" s="60" t="s">
         <v>227</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S2" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="T2" s="60" t="s">
         <v>311</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>312</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>79</v>
@@ -7278,22 +7442,22 @@
         <v>72</v>
       </c>
       <c r="AL2" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM2" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="AM2" s="101" t="s">
+      <c r="AN2" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="AN2" s="101" t="s">
+      <c r="AO2" s="101" t="s">
         <v>317</v>
       </c>
-      <c r="AO2" s="101" t="s">
+      <c r="AP2" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="AP2" s="101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="55">
         <f>工作量绩效!N2</f>
         <v>0</v>
@@ -7432,11 +7596,11 @@
       </c>
       <c r="AI3" s="85">
         <f>工作量绩效!N41</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="55">
         <f>工作量绩效!X2</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="55">
         <f>工作量绩效!Y2</f>
@@ -7448,11 +7612,11 @@
       </c>
       <c r="AM3" s="112" t="str">
         <f>工作量绩效!AA2</f>
-        <v>{{week8.count}}</v>
+        <v>${week8.count}</v>
       </c>
       <c r="AN3" s="112" t="str">
         <f>工作量绩效!AB2</f>
-        <v>{{week8.validCount}}</v>
+        <v>${week8.validCount}</v>
       </c>
       <c r="AO3" s="112">
         <f>工作量绩效!AC2</f>
@@ -7483,27 +7647,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="32" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="7.58203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="6.58203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="26" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="26" customWidth="1"/>
     <col min="6" max="6" width="45.83203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="64.58203125" style="26" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="24"/>
+    <col min="7" max="7" width="64.6640625" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
@@ -7526,9 +7690,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="216"/>
-      <c r="B2" s="207" t="s">
+    <row r="2" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="213"/>
+      <c r="B2" s="201" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="95" t="s">
@@ -7547,9 +7711,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="67" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="216"/>
-      <c r="B3" s="208"/>
+    <row r="3" spans="1:7" s="67" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="213"/>
+      <c r="B3" s="202"/>
       <c r="C3" s="108">
         <v>0.5</v>
       </c>
@@ -7566,9 +7730,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="216"/>
-      <c r="B4" s="207" t="s">
+    <row r="4" spans="1:7" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="213"/>
+      <c r="B4" s="201" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="77" t="s">
@@ -7583,13 +7747,13 @@
       <c r="F4" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="201" t="s">
+      <c r="G4" s="204" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="216"/>
-      <c r="B5" s="208"/>
+    <row r="5" spans="1:7" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="213"/>
+      <c r="B5" s="202"/>
       <c r="C5" s="77" t="s">
         <v>4</v>
       </c>
@@ -7602,11 +7766,11 @@
       <c r="F5" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="202"/>
-    </row>
-    <row r="6" spans="1:7" s="75" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="216"/>
-      <c r="B6" s="208"/>
+      <c r="G5" s="205"/>
+    </row>
+    <row r="6" spans="1:7" s="75" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="213"/>
+      <c r="B6" s="202"/>
       <c r="C6" s="77"/>
       <c r="D6" s="77"/>
       <c r="E6" s="76" t="s">
@@ -7615,11 +7779,11 @@
       <c r="F6" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="202"/>
-    </row>
-    <row r="7" spans="1:7" s="75" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="216"/>
-      <c r="B7" s="208"/>
+      <c r="G6" s="205"/>
+    </row>
+    <row r="7" spans="1:7" s="75" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="213"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="77" t="s">
         <v>43</v>
       </c>
@@ -7632,11 +7796,11 @@
       <c r="F7" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="202"/>
-    </row>
-    <row r="8" spans="1:7" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="216"/>
-      <c r="B8" s="208"/>
+      <c r="G7" s="205"/>
+    </row>
+    <row r="8" spans="1:7" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="213"/>
+      <c r="B8" s="202"/>
       <c r="C8" s="77" t="s">
         <v>43</v>
       </c>
@@ -7649,11 +7813,11 @@
       <c r="F8" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="203"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="216"/>
-      <c r="B9" s="204" t="s">
+      <c r="G8" s="206"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="213"/>
+      <c r="B9" s="238" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -7668,13 +7832,13 @@
       <c r="F9" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="201" t="s">
+      <c r="G9" s="204" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="216"/>
-      <c r="B10" s="205"/>
+    <row r="10" spans="1:7" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="213"/>
+      <c r="B10" s="239"/>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
       <c r="E10" s="29" t="s">
@@ -7683,11 +7847,11 @@
       <c r="F10" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="202"/>
-    </row>
-    <row r="11" spans="1:7" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="216"/>
-      <c r="B11" s="206"/>
+      <c r="G10" s="205"/>
+    </row>
+    <row r="11" spans="1:7" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="213"/>
+      <c r="B11" s="240"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
       <c r="E11" s="29" t="s">
@@ -7696,11 +7860,11 @@
       <c r="F11" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="203"/>
-    </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="216"/>
-      <c r="B12" s="207" t="s">
+      <c r="G11" s="206"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="213"/>
+      <c r="B12" s="201" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -7715,13 +7879,13 @@
       <c r="F12" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="201" t="s">
+      <c r="G12" s="204" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="216"/>
-      <c r="B13" s="208"/>
+    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="213"/>
+      <c r="B13" s="202"/>
       <c r="C13" s="115" t="s">
         <v>124</v>
       </c>
@@ -7734,11 +7898,11 @@
       <c r="F13" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="203"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="216"/>
-      <c r="B14" s="207" t="s">
+      <c r="G13" s="206"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="213"/>
+      <c r="B14" s="201" t="s">
         <v>188</v>
       </c>
       <c r="C14" s="77" t="s">
@@ -7753,13 +7917,13 @@
       <c r="F14" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="201" t="s">
+      <c r="G14" s="204" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="216"/>
-      <c r="B15" s="208"/>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="213"/>
+      <c r="B15" s="202"/>
       <c r="C15" s="77" t="s">
         <v>10</v>
       </c>
@@ -7772,11 +7936,11 @@
       <c r="F15" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="202"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="216"/>
-      <c r="B16" s="208"/>
+      <c r="G15" s="205"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="213"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="33" t="s">
         <v>102</v>
       </c>
@@ -7789,11 +7953,11 @@
       <c r="F16" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="202"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
-      <c r="B17" s="208"/>
+      <c r="G16" s="205"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="213"/>
+      <c r="B17" s="202"/>
       <c r="C17" s="33" t="s">
         <v>10</v>
       </c>
@@ -7806,11 +7970,11 @@
       <c r="F17" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="202"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="216"/>
-      <c r="B18" s="208"/>
+      <c r="G17" s="205"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="213"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="33" t="s">
         <v>31</v>
       </c>
@@ -7823,11 +7987,11 @@
       <c r="F18" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="203"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="216"/>
-      <c r="B19" s="207" t="s">
+      <c r="G18" s="206"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="213"/>
+      <c r="B19" s="201" t="s">
         <v>240</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -7842,13 +8006,13 @@
       <c r="F19" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="201" t="s">
+      <c r="G19" s="204" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="216"/>
-      <c r="B20" s="208"/>
+    <row r="20" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="213"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="77"/>
       <c r="D20" s="77"/>
       <c r="E20" s="34" t="s">
@@ -7857,11 +8021,11 @@
       <c r="F20" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="202"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="216"/>
-      <c r="B21" s="208"/>
+      <c r="G20" s="205"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="213"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="33" t="s">
         <v>4</v>
       </c>
@@ -7874,11 +8038,11 @@
       <c r="F21" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="G21" s="202"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="216"/>
-      <c r="B22" s="208"/>
+      <c r="G21" s="205"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="213"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="33" t="s">
         <v>146</v>
       </c>
@@ -7891,11 +8055,11 @@
       <c r="F22" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="202"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="216"/>
-      <c r="B23" s="208"/>
+      <c r="G22" s="205"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="213"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="33" t="s">
         <v>148</v>
       </c>
@@ -7908,11 +8072,11 @@
       <c r="F23" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="G23" s="202"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="216"/>
-      <c r="B24" s="208"/>
+      <c r="G23" s="205"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="213"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="33" t="s">
         <v>102</v>
       </c>
@@ -7925,11 +8089,11 @@
       <c r="F24" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="202"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="216"/>
-      <c r="B25" s="208"/>
+      <c r="G24" s="205"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="213"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="33" t="s">
         <v>53</v>
       </c>
@@ -7942,11 +8106,11 @@
       <c r="F25" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="202"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="216"/>
-      <c r="B26" s="208"/>
+      <c r="G25" s="205"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="213"/>
+      <c r="B26" s="202"/>
       <c r="C26" s="33" t="s">
         <v>103</v>
       </c>
@@ -7959,11 +8123,11 @@
       <c r="F26" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="202"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="216"/>
-      <c r="B27" s="208"/>
+      <c r="G26" s="205"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="213"/>
+      <c r="B27" s="202"/>
       <c r="C27" s="33" t="s">
         <v>53</v>
       </c>
@@ -7976,11 +8140,11 @@
       <c r="F27" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="202"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="216"/>
-      <c r="B28" s="209"/>
+      <c r="G27" s="205"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="213"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="33" t="s">
         <v>105</v>
       </c>
@@ -7993,10 +8157,10 @@
       <c r="F28" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="203"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="216"/>
+      <c r="G28" s="206"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="213"/>
       <c r="B29" s="28" t="s">
         <v>106</v>
       </c>
@@ -8010,8 +8174,8 @@
       </c>
       <c r="G29" s="66"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="216"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="213"/>
       <c r="B30" s="29" t="s">
         <v>52</v>
       </c>
@@ -8025,8 +8189,8 @@
       </c>
       <c r="G30" s="66"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="216"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="213"/>
       <c r="B31" s="29" t="s">
         <v>58</v>
       </c>
@@ -8042,8 +8206,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="240"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="237"/>
       <c r="B32" s="29" t="s">
         <v>110</v>
       </c>
@@ -8059,7 +8223,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="75" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="75" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="114"/>
       <c r="B33" s="29"/>
       <c r="C33" s="77" t="s">
@@ -8078,8 +8242,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="75" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="215" t="s">
+    <row r="34" spans="1:7" s="75" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="212" t="s">
         <v>132</v>
       </c>
       <c r="B34" s="29" t="s">
@@ -8095,33 +8259,33 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="216"/>
+    <row r="35" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="213"/>
       <c r="B35" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="237" t="s">
+      <c r="C35" s="234" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="238"/>
-      <c r="E35" s="239"/>
+      <c r="D35" s="235"/>
+      <c r="E35" s="236"/>
       <c r="F35" s="106" t="s">
         <v>171</v>
       </c>
       <c r="G35" s="84"/>
     </row>
-    <row r="36" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="217" t="s">
+    <row r="36" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="214" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="216" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="220"/>
-      <c r="E36" s="221"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="218"/>
       <c r="F36" s="84" t="s">
         <v>241</v>
       </c>
@@ -8129,27 +8293,27 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="215"/>
       <c r="B37" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="222"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="224"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="221"/>
       <c r="F37" s="66" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="66"/>
     </row>
-    <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
+    <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="215"/>
       <c r="B38" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="222"/>
-      <c r="D38" s="223"/>
-      <c r="E38" s="224"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="221"/>
       <c r="F38" s="66" t="s">
         <v>48</v>
       </c>
@@ -8157,14 +8321,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="218"/>
+    <row r="39" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="215"/>
       <c r="B39" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="225"/>
-      <c r="D39" s="226"/>
-      <c r="E39" s="227"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="223"/>
+      <c r="E39" s="224"/>
       <c r="F39" s="66" t="s">
         <v>112</v>
       </c>
@@ -8172,16 +8336,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="67" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="67" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68"/>
       <c r="B40" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="234" t="s">
+      <c r="C40" s="231" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="235"/>
-      <c r="E40" s="236"/>
+      <c r="D40" s="232"/>
+      <c r="E40" s="233"/>
       <c r="F40" s="106" t="s">
         <v>161</v>
       </c>
@@ -8189,18 +8353,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="110" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="228" t="s">
+      <c r="C41" s="225" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="229"/>
-      <c r="E41" s="230"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="227"/>
       <c r="F41" s="111" t="s">
         <v>184</v>
       </c>
@@ -8208,16 +8372,16 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="65" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="25"/>
-      <c r="C42" s="231" t="s">
+      <c r="C42" s="228" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="232"/>
-      <c r="E42" s="233"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="230"/>
       <c r="F42" s="66" t="s">
         <v>151</v>
       </c>
@@ -8225,27 +8389,32 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="94" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="210" t="s">
+    <row r="43" spans="1:7" s="94" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="211"/>
-      <c r="C43" s="212" t="s">
+      <c r="B43" s="208"/>
+      <c r="C43" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="213"/>
-      <c r="E43" s="213"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="214"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="211"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F45" s="27"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G18"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="G19:G28"/>
     <mergeCell ref="A43:B43"/>
@@ -8262,11 +8431,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
